--- a/config.xlsx
+++ b/config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>文件路径</t>
   </si>
@@ -52,81 +52,6 @@
     <t>([Chinese-Simplified]</t>
   </si>
   <si>
-    <t>](image</t>
-  </si>
-  <si>
-    <t>](./_platon-samurai-EN/image</t>
-  </si>
-  <si>
-    <t>](./_platon-samurai/image</t>
-  </si>
-  <si>
-    <t>en-us\[English]-Samurai-Wallet.md</t>
-  </si>
-  <si>
-    <t>](en-us/_platon-samurai-EN/_</t>
-  </si>
-  <si>
-    <t>](_</t>
-  </si>
-  <si>
-    <t>zh-cn\[Chinese-Simplified]-Samurai-钱包.md</t>
-  </si>
-  <si>
-    <t>](zh-cn/_platon-samurai/_</t>
-  </si>
-  <si>
-    <t>en-us\[English]-Installation-Instructions.md</t>
-  </si>
-  <si>
-    <t>Installing on Windows</t>
-  </si>
-  <si>
-    <t>&lt;a name="install-on-windows"&gt;&lt;/a&gt;Installing on Windows</t>
-  </si>
-  <si>
-    <t>zh-cn\[Chinese-Simplified]-Wasm合约开发指南.md</t>
-  </si>
-  <si>
-    <t>](zh-cn/wasm-contract/_</t>
-  </si>
-  <si>
-    <t>zh-cn\[Chinese-Simplified]-隐私合约开发指南.md</t>
-  </si>
-  <si>
-    <t>](zh-cn/privacy-contract/_</t>
-  </si>
-  <si>
-    <t>en-us</t>
-  </si>
-  <si>
-    <t>(en-us/[English]-private-networks)</t>
-  </si>
-  <si>
-    <t>(en-us/[English]private-networks)</t>
-  </si>
-  <si>
-    <t>en-us\[English]-Wasm-Contract-Development-Guide.md</t>
-  </si>
-  <si>
-    <t>](en-us/wasm-contract-EN/_</t>
-  </si>
-  <si>
-    <t>&lt;img src="zh-cn/privacy-contract/images/mpc_structure.png" width = "1000" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="privacy-contract/images/mpc_structure.png" width = "1000" /&gt;</t>
-  </si>
-  <si>
-    <t>](_platon-samurai/image/</t>
-  </si>
-  <si>
-    <t>](image/</t>
-  </si>
-  <si>
-    <t>](_platon-samurai-EN/image/</t>
-  </si>
-  <si>
     <t>zh-cn\_sidebar.md</t>
   </si>
   <si>
@@ -137,6 +62,24 @@
   </si>
   <si>
     <t>en-us\_sidebar.md</t>
+  </si>
+  <si>
+    <t>zh-cn/platon-samurai/</t>
+  </si>
+  <si>
+    <t>en-us/platon-samurai-EN/</t>
+  </si>
+  <si>
+    <t>(platon-samurai/image</t>
+  </si>
+  <si>
+    <t>(zh-cn/platon-samurai/image</t>
+  </si>
+  <si>
+    <t>(platon-samurai-EN/image</t>
+  </si>
+  <si>
+    <t>(en-us/platon-samurai-EN/image</t>
   </si>
 </sst>
 </file>
@@ -146,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -183,6 +126,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -190,14 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,55 +215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,37 +247,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,145 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +480,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -563,6 +515,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,24 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,145 +546,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1173,16 +1116,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1190,16 +1133,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1207,13 +1150,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1224,12 +1164,9 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="b">
@@ -1241,13 +1178,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1258,154 +1195,18 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
         <v>8</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E39"/>
+  <oleSize ref="C1:G39"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>文件路径</t>
   </si>
@@ -37,49 +37,19 @@
     <t>.</t>
   </si>
   <si>
-    <t>(en-us/[English]</t>
+    <t>\[English\](?!-)</t>
   </si>
   <si>
-    <t>([English]</t>
+    <t>[English]-</t>
   </si>
   <si>
     <t>.md</t>
   </si>
   <si>
-    <t>(zh-cn/[Chinese-Simplified]</t>
+    <t>\[Chinese-Simplified\](?!-)</t>
   </si>
   <si>
-    <t>([Chinese-Simplified]</t>
-  </si>
-  <si>
-    <t>zh-cn\_sidebar.md</t>
-  </si>
-  <si>
-    <t>-\s+(?!\S+)</t>
-  </si>
-  <si>
-    <t>@line</t>
-  </si>
-  <si>
-    <t>en-us\_sidebar.md</t>
-  </si>
-  <si>
-    <t>zh-cn/platon-samurai/</t>
-  </si>
-  <si>
-    <t>en-us/platon-samurai-EN/</t>
-  </si>
-  <si>
-    <t>(platon-samurai/image</t>
-  </si>
-  <si>
-    <t>(zh-cn/platon-samurai/image</t>
-  </si>
-  <si>
-    <t>(platon-samurai-EN/image</t>
-  </si>
-  <si>
-    <t>(en-us/platon-samurai-EN/image</t>
+    <t>[Chinese-Simplified]-</t>
   </si>
 </sst>
 </file>
@@ -87,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -103,14 +73,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,9 +86,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -148,76 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,14 +203,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -247,12 +217,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,169 +307,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,21 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,8 +438,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,13 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,141 +528,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="106" customWidth="1"/>
     <col min="2" max="2" width="84.875" customWidth="1"/>
@@ -1091,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1108,105 +1075,9 @@
         <v>10</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
